--- a/calc/doc/DetailedDesignDoc.xlsx
+++ b/calc/doc/DetailedDesignDoc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="11100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="関数仕様" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>書式</t>
     <rPh sb="0" eb="2">
@@ -130,61 +130,6 @@
   </si>
   <si>
     <t>フロー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数に指定された四則演算結果が正当かどうか検証する。
-異常な場合は、適切なメッセージを変数に格納。
-[異常]
--255桁を超える場合</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シソク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>エンザン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイトウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テキセツ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -266,36 +211,6 @@
     <rPh sb="17" eb="19">
       <t>エンザン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>true : 計算結果が正当</t>
-    <rPh sb="7" eb="9">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>false : 計算結果が不当</t>
-    <rPh sb="8" eb="10">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int calcResult</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -766,10 +681,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェックしたい四則演算結果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>意味</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1097,34 +1008,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. 引数の桁数を確認。
- -[異常な場合]、適切なメッセージを変数に格納。
-   falseを戻り値として返す。
-2. tureを戻り値として返す。</t>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケタスウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1374,10 +1257,6 @@
     <rPh sb="32" eb="33">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bool validateCalcResult(double clacResult)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1514,21 +1393,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1685,33 +1558,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1727,7 +1576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1785,31 +1634,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2255,13 +2083,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2487,67 +2315,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="テキスト ボックス 112"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4572000" y="4476750"/>
-          <a:ext cx="2105025" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>validateCalcResult(calcResult)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -3021,13 +2788,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3503,232 +3270,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="正方形/長方形 114"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6781800" y="5457825"/>
-          <a:ext cx="152400" cy="866776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="直線矢印コネクタ 115"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200525" y="4752975"/>
-          <a:ext cx="2543175" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd w="lg" len="lg"/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線矢印コネクタ 116"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4191000" y="5229225"/>
-          <a:ext cx="2590800" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:headEnd type="arrow" w="lg" len="lg"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="テキスト ボックス 117"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5191126" y="5219701"/>
-          <a:ext cx="628649" cy="219074"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>return</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -4176,13 +3717,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4192,7 +3733,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="6429375"/>
+          <a:off x="685800" y="5953125"/>
           <a:ext cx="9601200" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4236,13 +3777,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4310,13 +3851,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4379,13 +3920,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4431,13 +3972,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4500,13 +4041,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4552,13 +4093,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4887,194 +4428,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="46.125" customWidth="1"/>
-    <col min="4" max="4" width="52.375" customWidth="1"/>
-    <col min="5" max="5" width="53.25" customWidth="1"/>
-    <col min="6" max="6" width="50.375" customWidth="1"/>
-    <col min="7" max="7" width="40.375" customWidth="1"/>
-    <col min="8" max="8" width="44.375" customWidth="1"/>
-    <col min="9" max="9" width="47.375" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="47.875" customWidth="1"/>
-    <col min="12" max="12" width="40.5" customWidth="1"/>
-    <col min="13" max="13" width="49.5" customWidth="1"/>
-    <col min="14" max="14" width="36.25" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="52.375" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="7" max="7" width="53.25" customWidth="1"/>
+    <col min="8" max="8" width="49.5" customWidth="1"/>
+    <col min="9" max="9" width="47.875" customWidth="1"/>
+    <col min="10" max="10" width="40.375" customWidth="1"/>
+    <col min="11" max="11" width="44.375" customWidth="1"/>
+    <col min="12" max="12" width="47.375" customWidth="1"/>
+    <col min="13" max="13" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>47</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="D2" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="E2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="308.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="308.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>60</v>
+      <c r="F4" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="L4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="11" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -5082,183 +4610,173 @@
       <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>9</v>
+      <c r="D5" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>32</v>
+      <c r="F5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="K6" s="15" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="M7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="M8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="12"/>
+      <c r="L10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
@@ -5268,33 +4786,30 @@
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="8"/>
       <c r="B12" s="4" t="s">
         <v>4</v>
@@ -5302,21 +4817,18 @@
       <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="M12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5329,8 +4841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
